--- a/result/Mine/snap.xlsx
+++ b/result/Mine/snap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
   <si>
     <t>graph_name</t>
   </si>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>7515023</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>email-Enron</t>
@@ -478,7 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -831,7 +825,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1015,70 +1009,70 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
@@ -1089,51 +1083,51 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>77</v>
@@ -1144,7 +1138,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>79</v>
@@ -1155,18 +1149,18 @@
         <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>84</v>
@@ -1177,238 +1171,238 @@
         <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
@@ -1419,32 +1413,21 @@
         <v>141</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
